--- a/mfa/I_orientalis/run_files/batch/data_expmt1.xlsx
+++ b/mfa/I_orientalis/run_files/batch/data_expmt1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="253">
   <si>
     <t xml:space="preserve">fragment name</t>
   </si>
@@ -646,6 +646,9 @@
   </si>
   <si>
     <t xml:space="preserve">EX_glyc_e.f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EX_o2_e.f</t>
   </si>
   <si>
     <t xml:space="preserve">DIL_2ippm_d1.f</t>
@@ -1943,10 +1946,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2036,15 +2039,16 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
         <v>208</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>100</v>
+        <v>20.36</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>0.0001</v>
+        <f aca="false">MIN(0.92, 0.1*B8)</f>
+        <v>0.92</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2399,14 +2403,25 @@
         <v>0.0001</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+    <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="s">
         <v>241</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>100</v>
       </c>
       <c r="C41" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C42" s="0" t="n">
         <v>0.0001</v>
       </c>
     </row>
@@ -2444,33 +2459,33 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0.5</v>
@@ -2479,7 +2494,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>100</v>
